--- a/utils/recordingExcel/ISH/ISH_LocalProcessNew.xlsx
+++ b/utils/recordingExcel/ISH/ISH_LocalProcessNew.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C8AD36-04BB-47F1-B612-2BD7A30A544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055436D-0A5E-499D-B2D7-98B0F19D71D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16172" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="26002" uniqueCount="644">
   <si>
     <t>RNP_Noise</t>
   </si>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="true" topLeftCell="A112" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6022,10 +6022,10 @@
         <v>640</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J78" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>15</v>
@@ -6066,10 +6066,10 @@
         <v>640</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J79" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K79" s="29" t="s">
         <v>15</v>
@@ -6110,10 +6110,10 @@
         <v>640</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J80" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K80" s="29" t="s">
         <v>15</v>
@@ -6154,10 +6154,10 @@
         <v>640</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J81" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K81" s="36" t="s">
         <v>15</v>
@@ -6198,10 +6198,10 @@
         <v>640</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J82" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K82" s="36" t="s">
         <v>15</v>
@@ -7779,7 +7779,7 @@
         <v>630</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I118" s="29" t="s">
         <v>641</v>
@@ -7823,7 +7823,7 @@
         <v>630</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I119" s="29" t="s">
         <v>641</v>
@@ -7867,7 +7867,7 @@
         <v>630</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I120" s="29" t="s">
         <v>641</v>
@@ -7911,7 +7911,7 @@
         <v>630</v>
       </c>
       <c r="H121" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I121" s="43" t="s">
         <v>641</v>
@@ -7955,7 +7955,7 @@
         <v>630</v>
       </c>
       <c r="H122" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I122" s="29" t="s">
         <v>641</v>
@@ -7999,7 +7999,7 @@
         <v>613</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I123" s="29" t="s">
         <v>641</v>
@@ -8043,7 +8043,7 @@
         <v>613</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I124" s="29" t="s">
         <v>641</v>
@@ -8087,7 +8087,7 @@
         <v>613</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I125" s="29" t="s">
         <v>641</v>
@@ -8131,7 +8131,7 @@
         <v>613</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I126" s="29" t="s">
         <v>641</v>
@@ -8175,7 +8175,7 @@
         <v>613</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I127" s="29" t="s">
         <v>641</v>
@@ -8219,7 +8219,7 @@
         <v>631</v>
       </c>
       <c r="H128" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I128" s="43" t="s">
         <v>641</v>
@@ -8263,7 +8263,7 @@
         <v>631</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I129" s="29" t="s">
         <v>641</v>
@@ -8307,7 +8307,7 @@
         <v>631</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I130" s="29" t="s">
         <v>641</v>
@@ -8351,7 +8351,7 @@
         <v>631</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I131" s="29" t="s">
         <v>641</v>
@@ -8395,7 +8395,7 @@
         <v>631</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I132" s="15" t="s">
         <v>641</v>
@@ -8439,7 +8439,7 @@
         <v>632</v>
       </c>
       <c r="H133" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I133" s="29" t="s">
         <v>641</v>
@@ -8483,7 +8483,7 @@
         <v>632</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I134" s="29" t="s">
         <v>641</v>
@@ -8527,7 +8527,7 @@
         <v>632</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I135" s="29" t="s">
         <v>641</v>
@@ -8571,7 +8571,7 @@
         <v>632</v>
       </c>
       <c r="H136" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I136" s="43" t="s">
         <v>641</v>
@@ -8615,7 +8615,7 @@
         <v>632</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I137" s="29" t="s">
         <v>641</v>
@@ -8659,7 +8659,7 @@
         <v>633</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I138" s="29" t="s">
         <v>641</v>
@@ -8703,7 +8703,7 @@
         <v>633</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I139" s="29" t="s">
         <v>641</v>
@@ -8747,7 +8747,7 @@
         <v>633</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I140" s="29" t="s">
         <v>641</v>
@@ -8791,7 +8791,7 @@
         <v>633</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I141" s="29" t="s">
         <v>641</v>
@@ -8835,7 +8835,7 @@
         <v>633</v>
       </c>
       <c r="H142" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I142" s="43" t="s">
         <v>641</v>
@@ -8879,7 +8879,7 @@
         <v>634</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I143" s="29" t="s">
         <v>641</v>
@@ -8923,7 +8923,7 @@
         <v>634</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I144" s="29" t="s">
         <v>641</v>
@@ -8967,7 +8967,7 @@
         <v>634</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I145" s="29" t="s">
         <v>641</v>
@@ -9011,7 +9011,7 @@
         <v>634</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I146" s="29" t="s">
         <v>641</v>
@@ -9055,7 +9055,7 @@
         <v>634</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I147" s="29" t="s">
         <v>641</v>
@@ -9099,7 +9099,7 @@
         <v>635</v>
       </c>
       <c r="H148" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I148" s="43" t="s">
         <v>641</v>
@@ -9143,7 +9143,7 @@
         <v>635</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I149" s="29" t="s">
         <v>641</v>
@@ -9187,7 +9187,7 @@
         <v>635</v>
       </c>
       <c r="H150" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I150" s="29" t="s">
         <v>641</v>
@@ -9231,7 +9231,7 @@
         <v>635</v>
       </c>
       <c r="H151" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I151" s="29" t="s">
         <v>641</v>
@@ -9275,7 +9275,7 @@
         <v>635</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I152" s="29" t="s">
         <v>641</v>
@@ -9319,7 +9319,7 @@
         <v>636</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I153" s="29" t="s">
         <v>641</v>
@@ -9363,7 +9363,7 @@
         <v>636</v>
       </c>
       <c r="H154" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I154" s="43" t="s">
         <v>641</v>
@@ -9407,7 +9407,7 @@
         <v>636</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I155" s="29" t="s">
         <v>641</v>
@@ -9451,7 +9451,7 @@
         <v>636</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I156" s="29" t="s">
         <v>641</v>
@@ -9495,7 +9495,7 @@
         <v>636</v>
       </c>
       <c r="H157" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I157" s="29" t="s">
         <v>641</v>
@@ -9539,7 +9539,7 @@
         <v>632</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I158" s="29" t="s">
         <v>641</v>
@@ -9583,7 +9583,7 @@
         <v>632</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I159" s="29" t="s">
         <v>641</v>
@@ -9627,7 +9627,7 @@
         <v>632</v>
       </c>
       <c r="H160" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I160" s="43" t="s">
         <v>641</v>
@@ -9671,7 +9671,7 @@
         <v>632</v>
       </c>
       <c r="H161" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I161" s="29" t="s">
         <v>641</v>
@@ -9715,7 +9715,7 @@
         <v>632</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I162" s="29" t="s">
         <v>641</v>
@@ -9759,7 +9759,7 @@
         <v>637</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I163" s="29" t="s">
         <v>641</v>
@@ -9803,7 +9803,7 @@
         <v>637</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I164" s="29" t="s">
         <v>641</v>
@@ -9847,7 +9847,7 @@
         <v>637</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I165" s="29" t="s">
         <v>641</v>
@@ -9891,7 +9891,7 @@
         <v>637</v>
       </c>
       <c r="H166" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I166" s="43" t="s">
         <v>641</v>
@@ -9935,7 +9935,7 @@
         <v>637</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I167" s="29" t="s">
         <v>641</v>
@@ -9979,7 +9979,7 @@
         <v>638</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I168" s="29" t="s">
         <v>641</v>
@@ -10023,7 +10023,7 @@
         <v>638</v>
       </c>
       <c r="H169" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I169" s="29" t="s">
         <v>641</v>
@@ -10067,7 +10067,7 @@
         <v>638</v>
       </c>
       <c r="H170" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I170" s="29" t="s">
         <v>641</v>
@@ -10111,7 +10111,7 @@
         <v>638</v>
       </c>
       <c r="H171" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I171" s="29" t="s">
         <v>641</v>
@@ -10155,7 +10155,7 @@
         <v>638</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I172" s="15" t="s">
         <v>641</v>
@@ -10199,7 +10199,7 @@
         <v>639</v>
       </c>
       <c r="H173" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I173" s="29" t="s">
         <v>641</v>
@@ -10243,7 +10243,7 @@
         <v>639</v>
       </c>
       <c r="H174" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I174" s="29" t="s">
         <v>641</v>
@@ -10287,7 +10287,7 @@
         <v>639</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I175" s="29" t="s">
         <v>641</v>
@@ -10331,7 +10331,7 @@
         <v>639</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I176" s="29" t="s">
         <v>641</v>
@@ -10375,7 +10375,7 @@
         <v>639</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I177" s="15" t="s">
         <v>641</v>
